--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E3F4C7-B401-4C10-A780-2C8855408628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94227969-611F-4664-9365-13A749242E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{CC0FDE71-BFE3-49BD-87B0-63311ADDC86B}"/>
+    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{CC0FDE71-BFE3-49BD-87B0-63311ADDC86B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>Prepare and serve data (40–45%)</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Connect to and query datasets by using the XMLA endpoint</t>
+  </si>
+  <si>
+    <t>Enforce Power BI model security</t>
+  </si>
+  <si>
+    <t>Work with semantic models in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Use tools to optimize Power BI performance</t>
+  </si>
+  <si>
+    <t>Understand scalability in Power BI</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -431,9 +443,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F1625C-5000-4F04-82F7-69FCF09756F9}">
-  <dimension ref="B4:E61"/>
+  <dimension ref="B4:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +772,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="127.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1021,7 +1032,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="7" t="s">
@@ -1029,7 +1040,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="7" t="s">
@@ -1037,7 +1048,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="7" t="s">
@@ -1045,7 +1056,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="7" t="s">
@@ -1053,7 +1064,7 @@
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="7" t="s">
@@ -1061,7 +1072,7 @@
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="D38" s="9" t="s">
@@ -1069,7 +1080,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -1079,7 +1090,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="7" t="s">
@@ -1087,7 +1098,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="9" t="s">
@@ -1095,7 +1106,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1107,23 +1118,33 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="7" t="s">
@@ -1131,7 +1152,7 @@
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="7" t="s">
@@ -1139,7 +1160,7 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="7" t="s">
@@ -1147,15 +1168,20 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="7" t="s">
@@ -1163,23 +1189,33 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="D51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
         <v>60</v>
@@ -1187,82 +1223,99 @@
       <c r="D52" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E61" s="6"/>
@@ -1275,8 +1328,24 @@
     <hyperlink ref="E25" r:id="rId4" xr:uid="{0AF04BE1-A555-4ED9-811E-EC39F515D5A8}"/>
     <hyperlink ref="E26" r:id="rId5" xr:uid="{BAA88795-F235-4360-9CFF-F45FFA6CDEEF}"/>
     <hyperlink ref="E27" r:id="rId6" xr:uid="{B5E37B33-817A-44E5-96D3-C8B0F1DBF815}"/>
+    <hyperlink ref="F50" r:id="rId7" xr:uid="{FD3C1402-8650-4FC1-9C1E-EE53C0CD6EA5}"/>
+    <hyperlink ref="F51" r:id="rId8" xr:uid="{7F68AE12-FB58-4DE7-8F6B-5CD37479E69F}"/>
+    <hyperlink ref="E50" r:id="rId9" xr:uid="{489E1AB1-A182-49C0-B020-218A1DB463FF}"/>
+    <hyperlink ref="E51" r:id="rId10" xr:uid="{69741641-8362-47C8-9441-DBA39468BB2B}"/>
+    <hyperlink ref="E52" r:id="rId11" xr:uid="{7164A495-8EA0-47F7-8BB0-5FCFA2D3F2EC}"/>
+    <hyperlink ref="E53" r:id="rId12" xr:uid="{44D0BCFB-3D38-43F0-96B8-A6D5C502C751}"/>
+    <hyperlink ref="E54" r:id="rId13" xr:uid="{072689D4-E74E-44CC-AB20-F1B8188FB377}"/>
+    <hyperlink ref="E55" r:id="rId14" xr:uid="{C864DBA8-C4F5-4F38-926F-113405F6289B}"/>
+    <hyperlink ref="F52" r:id="rId15" xr:uid="{0C10BEA8-023E-420A-86F3-2D5D433EBA56}"/>
+    <hyperlink ref="F53:F54" r:id="rId16" display="Use tools to optimize Power BI performance" xr:uid="{1187E476-BC34-4CAA-AB1C-C1B8C5667C42}"/>
+    <hyperlink ref="E43" r:id="rId17" xr:uid="{C3309A4F-75AE-4A2B-B0DF-82E3F449D9F6}"/>
+    <hyperlink ref="F43" r:id="rId18" xr:uid="{A38A9D30-F8C4-4F4B-99CD-2DE3F5CC8C03}"/>
+    <hyperlink ref="F44" r:id="rId19" xr:uid="{6C7D76F9-F56F-4289-B00C-A84B74765C4B}"/>
+    <hyperlink ref="E44" r:id="rId20" xr:uid="{39608DE5-BD05-42B9-B8D1-99887A741737}"/>
+    <hyperlink ref="F48" r:id="rId21" xr:uid="{2AA61D87-B261-4697-92F8-107BE49C4B8D}"/>
+    <hyperlink ref="E48" r:id="rId22" xr:uid="{547DAEA9-A995-4E6E-B4A8-E3075D1FDC21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94227969-611F-4664-9365-13A749242E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EB55F-4495-42D8-B540-07DF7F6BCCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{CC0FDE71-BFE3-49BD-87B0-63311ADDC86B}"/>
+    <workbookView xWindow="-28920" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{CC0FDE71-BFE3-49BD-87B0-63311ADDC86B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>Prepare and serve data (40–45%)</t>
   </si>
@@ -270,6 +270,36 @@
   </si>
   <si>
     <t>Understand scalability in Power BI</t>
+  </si>
+  <si>
+    <t>Get started with lakehouses in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Semantic model connectivity with the XMLA endpoint</t>
+  </si>
+  <si>
+    <t>Direct Lake overview</t>
+  </si>
+  <si>
+    <t>Create and use report templates in Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Use PBIDS files to get data</t>
+  </si>
+  <si>
+    <t>https://sparkbyexamples.com/pyspark/pyspark-cast-column-type/</t>
+  </si>
+  <si>
+    <t>Configure incremental refresh</t>
+  </si>
+  <si>
+    <t>User-defined aggregations</t>
+  </si>
+  <si>
+    <t>Automatic aggregations</t>
+  </si>
+  <si>
+    <t>Power BI Fast and Furious with Data Aggregations</t>
   </si>
 </sst>
 </file>
@@ -293,12 +323,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -428,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -442,9 +478,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F1625C-5000-4F04-82F7-69FCF09756F9}">
-  <dimension ref="B4:F61"/>
+  <dimension ref="B4:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +815,8 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="127.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -895,40 +939,42 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -936,47 +982,49 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -984,9 +1032,9 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -994,177 +1042,188 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="4"/>
+      <c r="D35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="4"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="9" t="s">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>77</v>
+      <c r="E44" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E47" s="4"/>
     </row>
@@ -1172,20 +1231,15 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -1193,63 +1247,58 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>74</v>
+      <c r="F50" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
-      <c r="C52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>76</v>
+      <c r="F52" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>76</v>
+      <c r="F53" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="15" t="s">
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F54" s="12" t="s">
@@ -1257,95 +1306,130 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="E57" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
-      <c r="C59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="9" t="s">
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E63" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{E5DD0FCD-76E8-4406-BBFB-CFD2EF6FE67C}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{1E105CF3-D75F-4A87-A99E-06982817AECD}"/>
-    <hyperlink ref="E24" r:id="rId3" xr:uid="{DABE545A-6E16-4DA5-899E-5B97392F0D65}"/>
-    <hyperlink ref="E25" r:id="rId4" xr:uid="{0AF04BE1-A555-4ED9-811E-EC39F515D5A8}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{BAA88795-F235-4360-9CFF-F45FFA6CDEEF}"/>
-    <hyperlink ref="E27" r:id="rId6" xr:uid="{B5E37B33-817A-44E5-96D3-C8B0F1DBF815}"/>
-    <hyperlink ref="F50" r:id="rId7" xr:uid="{FD3C1402-8650-4FC1-9C1E-EE53C0CD6EA5}"/>
-    <hyperlink ref="F51" r:id="rId8" xr:uid="{7F68AE12-FB58-4DE7-8F6B-5CD37479E69F}"/>
-    <hyperlink ref="E50" r:id="rId9" xr:uid="{489E1AB1-A182-49C0-B020-218A1DB463FF}"/>
-    <hyperlink ref="E51" r:id="rId10" xr:uid="{69741641-8362-47C8-9441-DBA39468BB2B}"/>
-    <hyperlink ref="E52" r:id="rId11" xr:uid="{7164A495-8EA0-47F7-8BB0-5FCFA2D3F2EC}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{44D0BCFB-3D38-43F0-96B8-A6D5C502C751}"/>
-    <hyperlink ref="E54" r:id="rId13" xr:uid="{072689D4-E74E-44CC-AB20-F1B8188FB377}"/>
-    <hyperlink ref="E55" r:id="rId14" xr:uid="{C864DBA8-C4F5-4F38-926F-113405F6289B}"/>
-    <hyperlink ref="F52" r:id="rId15" xr:uid="{0C10BEA8-023E-420A-86F3-2D5D433EBA56}"/>
-    <hyperlink ref="F53:F54" r:id="rId16" display="Use tools to optimize Power BI performance" xr:uid="{1187E476-BC34-4CAA-AB1C-C1B8C5667C42}"/>
-    <hyperlink ref="E43" r:id="rId17" xr:uid="{C3309A4F-75AE-4A2B-B0DF-82E3F449D9F6}"/>
-    <hyperlink ref="F43" r:id="rId18" xr:uid="{A38A9D30-F8C4-4F4B-99CD-2DE3F5CC8C03}"/>
-    <hyperlink ref="F44" r:id="rId19" xr:uid="{6C7D76F9-F56F-4289-B00C-A84B74765C4B}"/>
-    <hyperlink ref="E44" r:id="rId20" xr:uid="{39608DE5-BD05-42B9-B8D1-99887A741737}"/>
-    <hyperlink ref="F48" r:id="rId21" xr:uid="{2AA61D87-B261-4697-92F8-107BE49C4B8D}"/>
-    <hyperlink ref="E48" r:id="rId22" xr:uid="{547DAEA9-A995-4E6E-B4A8-E3075D1FDC21}"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{E5DD0FCD-76E8-4406-BBFB-CFD2EF6FE67C}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{1E105CF3-D75F-4A87-A99E-06982817AECD}"/>
+    <hyperlink ref="E25" r:id="rId3" xr:uid="{DABE545A-6E16-4DA5-899E-5B97392F0D65}"/>
+    <hyperlink ref="E26" r:id="rId4" xr:uid="{0AF04BE1-A555-4ED9-811E-EC39F515D5A8}"/>
+    <hyperlink ref="E27" r:id="rId5" xr:uid="{BAA88795-F235-4360-9CFF-F45FFA6CDEEF}"/>
+    <hyperlink ref="E28" r:id="rId6" xr:uid="{B5E37B33-817A-44E5-96D3-C8B0F1DBF815}"/>
+    <hyperlink ref="F52" r:id="rId7" xr:uid="{FD3C1402-8650-4FC1-9C1E-EE53C0CD6EA5}"/>
+    <hyperlink ref="F53" r:id="rId8" xr:uid="{7F68AE12-FB58-4DE7-8F6B-5CD37479E69F}"/>
+    <hyperlink ref="E52" r:id="rId9" xr:uid="{489E1AB1-A182-49C0-B020-218A1DB463FF}"/>
+    <hyperlink ref="E53" r:id="rId10" xr:uid="{69741641-8362-47C8-9441-DBA39468BB2B}"/>
+    <hyperlink ref="E54" r:id="rId11" xr:uid="{7164A495-8EA0-47F7-8BB0-5FCFA2D3F2EC}"/>
+    <hyperlink ref="E55" r:id="rId12" xr:uid="{44D0BCFB-3D38-43F0-96B8-A6D5C502C751}"/>
+    <hyperlink ref="E56" r:id="rId13" xr:uid="{072689D4-E74E-44CC-AB20-F1B8188FB377}"/>
+    <hyperlink ref="F54" r:id="rId14" xr:uid="{0C10BEA8-023E-420A-86F3-2D5D433EBA56}"/>
+    <hyperlink ref="F55:F56" r:id="rId15" display="Use tools to optimize Power BI performance" xr:uid="{1187E476-BC34-4CAA-AB1C-C1B8C5667C42}"/>
+    <hyperlink ref="E45" r:id="rId16" xr:uid="{C3309A4F-75AE-4A2B-B0DF-82E3F449D9F6}"/>
+    <hyperlink ref="F45" r:id="rId17" xr:uid="{A38A9D30-F8C4-4F4B-99CD-2DE3F5CC8C03}"/>
+    <hyperlink ref="F46" r:id="rId18" xr:uid="{6C7D76F9-F56F-4289-B00C-A84B74765C4B}"/>
+    <hyperlink ref="E46" r:id="rId19" xr:uid="{39608DE5-BD05-42B9-B8D1-99887A741737}"/>
+    <hyperlink ref="F50" r:id="rId20" xr:uid="{2AA61D87-B261-4697-92F8-107BE49C4B8D}"/>
+    <hyperlink ref="E50" r:id="rId21" xr:uid="{547DAEA9-A995-4E6E-B4A8-E3075D1FDC21}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{ECCBA242-6E17-4789-AC75-DBB411F1A906}"/>
+    <hyperlink ref="E18" r:id="rId23" xr:uid="{E915D814-8DA6-4200-B1B3-92E191C4D569}"/>
+    <hyperlink ref="E44" r:id="rId24" xr:uid="{5365E54D-002E-41D4-935F-CB60D625646C}"/>
+    <hyperlink ref="E19" r:id="rId25" xr:uid="{0CBB61F4-DE2A-4BD9-81C4-33D21A7ABA06}"/>
+    <hyperlink ref="E20" r:id="rId26" location="use-pbids-files-to-get-data" xr:uid="{13AED764-FE3F-43EF-AD6C-D4FA4C26B932}"/>
+    <hyperlink ref="E39" r:id="rId27" xr:uid="{F3FE54ED-0107-486E-B28A-C8B01AA48128}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{EE26C27E-65E8-468A-B3F6-59E31150B6C7}"/>
+    <hyperlink ref="E35" r:id="rId29" xr:uid="{5EDA8227-E441-4BAB-9EC9-78BC2E3A6A81}"/>
+    <hyperlink ref="E36" r:id="rId30" xr:uid="{891424C2-89F4-400C-8ADE-229F68D497A1}"/>
+    <hyperlink ref="F35" r:id="rId31" xr:uid="{CB03EAD5-6DCA-47EC-BD58-C69539125FC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>